--- a/2022/SAMSUNG/JULY/16.07.2022/SAMSUNG Bank Statement July-2022.xlsx
+++ b/2022/SAMSUNG/JULY/16.07.2022/SAMSUNG Bank Statement July-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="245">
   <si>
     <t>Date</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>A.M Tipu Boss (-)</t>
+  </si>
+  <si>
+    <t>17.07.2022</t>
   </si>
 </sst>
 </file>
@@ -3486,6 +3489,63 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3529,63 +3589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5207,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5526,9 +5529,15 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="393"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
+      <c r="B18" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="227">
+        <v>0</v>
+      </c>
+      <c r="D18" s="227">
+        <v>0</v>
+      </c>
       <c r="E18" s="228">
         <f>E17+C18-D18</f>
         <v>0</v>
@@ -9598,6 +9607,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9614,9 +9626,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9629,8 +9638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11272,14 +11281,14 @@
         <v>189280</v>
       </c>
       <c r="C16" s="48">
-        <v>290530</v>
+        <v>389530</v>
       </c>
       <c r="D16" s="45">
         <v>3140</v>
       </c>
       <c r="E16" s="45">
         <f t="shared" si="0"/>
-        <v>293670</v>
+        <v>392670</v>
       </c>
       <c r="F16" s="348"/>
       <c r="G16" s="140"/>
@@ -12999,7 +13008,7 @@
       </c>
       <c r="C33" s="232">
         <f>SUM(C5:C32)</f>
-        <v>3439465</v>
+        <v>3538465</v>
       </c>
       <c r="D33" s="231">
         <f>SUM(D5:D32)</f>
@@ -13007,11 +13016,11 @@
       </c>
       <c r="E33" s="231">
         <f>SUM(E5:E32)</f>
-        <v>3457120</v>
+        <v>3556120</v>
       </c>
       <c r="F33" s="231">
         <f>B33-E33</f>
-        <v>1293730</v>
+        <v>1194730</v>
       </c>
       <c r="G33" s="131"/>
       <c r="H33" s="132"/>
@@ -14070,10 +14079,10 @@
         <v>232</v>
       </c>
       <c r="D43" s="380">
-        <v>107000</v>
+        <v>8000</v>
       </c>
       <c r="E43" s="381" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F43" s="126"/>
       <c r="G43" s="412"/>
@@ -22114,7 +22123,7 @@
       <c r="C119" s="413"/>
       <c r="D119" s="202">
         <f>SUM(D37:D118)</f>
-        <v>4125930</v>
+        <v>4026930</v>
       </c>
       <c r="E119" s="197"/>
       <c r="F119" s="130"/>
@@ -22322,7 +22331,7 @@
       <c r="C121" s="410"/>
       <c r="D121" s="202">
         <f>D119+L121</f>
-        <v>4125930</v>
+        <v>4026930</v>
       </c>
       <c r="E121" s="197"/>
       <c r="F121" s="130"/>
@@ -33424,8 +33433,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33448,28 +33457,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="442" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="425"/>
+      <c r="B1" s="443"/>
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="444"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
+      <c r="I1" s="428"/>
+      <c r="J1" s="428"/>
+      <c r="K1" s="428"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="432" t="s">
+      <c r="A2" s="451" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="433"/>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
-      <c r="E2" s="434"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="453"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33490,13 +33499,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="445" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
+      <c r="B3" s="446"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="447"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33523,13 +33532,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="454" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="437"/>
+      <c r="B4" s="455"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="456"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33996,11 +34005,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="286"/>
-      <c r="I17" s="438" t="s">
+      <c r="I17" s="423" t="s">
         <v>140</v>
       </c>
-      <c r="J17" s="438"/>
-      <c r="K17" s="438"/>
+      <c r="J17" s="423"/>
+      <c r="K17" s="423"/>
       <c r="L17" s="324">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34023,11 +34032,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="286"/>
-      <c r="I18" s="444" t="s">
+      <c r="I18" s="429" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="444"/>
-      <c r="K18" s="444"/>
+      <c r="J18" s="429"/>
+      <c r="K18" s="429"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34039,21 +34048,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="429" t="s">
+      <c r="A19" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="430"/>
-      <c r="C19" s="430"/>
-      <c r="D19" s="430"/>
-      <c r="E19" s="431"/>
+      <c r="B19" s="449"/>
+      <c r="C19" s="449"/>
+      <c r="D19" s="449"/>
+      <c r="E19" s="450"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="442" t="s">
+      <c r="I19" s="427" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="442"/>
-      <c r="K19" s="442"/>
+      <c r="J19" s="427"/>
+      <c r="K19" s="427"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34081,11 +34090,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="445" t="s">
+      <c r="I20" s="430" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="445"/>
-      <c r="K20" s="445"/>
+      <c r="J20" s="430"/>
+      <c r="K20" s="430"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34112,11 +34121,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="446" t="s">
+      <c r="I21" s="431" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="447"/>
-      <c r="K21" s="448"/>
+      <c r="J21" s="432"/>
+      <c r="K21" s="433"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34141,11 +34150,11 @@
       <c r="E22" s="246">
         <v>373070</v>
       </c>
-      <c r="I22" s="442" t="s">
+      <c r="I22" s="427" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="442"/>
-      <c r="K22" s="442"/>
+      <c r="J22" s="427"/>
+      <c r="K22" s="427"/>
       <c r="L22" s="368">
         <v>20000</v>
       </c>
@@ -34170,11 +34179,11 @@
       <c r="E23" s="246">
         <v>55170</v>
       </c>
-      <c r="I23" s="439" t="s">
+      <c r="I23" s="424" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="440"/>
-      <c r="K23" s="441"/>
+      <c r="J23" s="425"/>
+      <c r="K23" s="426"/>
       <c r="L23" s="368">
         <v>40000</v>
       </c>
@@ -34199,9 +34208,9 @@
       <c r="E24" s="246">
         <v>372080</v>
       </c>
-      <c r="I24" s="449"/>
-      <c r="J24" s="450"/>
-      <c r="K24" s="451"/>
+      <c r="I24" s="434"/>
+      <c r="J24" s="435"/>
+      <c r="K24" s="436"/>
       <c r="L24" s="346"/>
       <c r="M24" s="346"/>
       <c r="N24" s="7"/>
@@ -34224,11 +34233,11 @@
       <c r="E25" s="246">
         <v>256760</v>
       </c>
-      <c r="I25" s="438" t="s">
+      <c r="I25" s="423" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="438"/>
-      <c r="K25" s="438"/>
+      <c r="J25" s="423"/>
+      <c r="K25" s="423"/>
       <c r="L25" s="324">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>128150</v>
@@ -34245,7 +34254,7 @@
         <v>214</v>
       </c>
       <c r="B26" s="114">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="C26" s="115"/>
       <c r="D26" s="311" t="s">
@@ -34294,11 +34303,11 @@
       <c r="E28" s="253">
         <v>200000</v>
       </c>
-      <c r="I28" s="456" t="s">
+      <c r="I28" s="441" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="456"/>
-      <c r="K28" s="456"/>
+      <c r="J28" s="441"/>
+      <c r="K28" s="441"/>
       <c r="L28" s="333">
         <v>213170</v>
       </c>
@@ -34360,11 +34369,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="5"/>
       <c r="D31" s="32"/>
-      <c r="I31" s="452" t="s">
+      <c r="I31" s="437" t="s">
         <v>167</v>
       </c>
-      <c r="J31" s="453"/>
-      <c r="K31" s="454"/>
+      <c r="J31" s="438"/>
+      <c r="K31" s="439"/>
       <c r="L31" s="368">
         <v>47500</v>
       </c>
@@ -34378,11 +34387,11 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I32" s="455" t="s">
+      <c r="I32" s="440" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="455"/>
-      <c r="K32" s="455"/>
+      <c r="J32" s="440"/>
+      <c r="K32" s="440"/>
       <c r="L32" s="368">
         <v>50000</v>
       </c>
@@ -34397,9 +34406,9 @@
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="E33" s="14"/>
-      <c r="I33" s="439"/>
-      <c r="J33" s="440"/>
-      <c r="K33" s="441"/>
+      <c r="I33" s="424"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="426"/>
       <c r="L33" s="368"/>
       <c r="M33" s="368"/>
       <c r="N33" s="7"/>
@@ -34409,11 +34418,11 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="I34" s="438" t="s">
+      <c r="I34" s="423" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="438"/>
-      <c r="K34" s="438"/>
+      <c r="J34" s="423"/>
+      <c r="K34" s="423"/>
       <c r="L34" s="367" t="e">
         <f>L28-#REF!-L31-L32</f>
         <v>#REF!</v>
@@ -37119,6 +37128,11 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="I25:K25"/>
@@ -37134,11 +37148,6 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
